--- a/files/purchaseRequest_08_01_2025.xlsx
+++ b/files/purchaseRequest_08_01_2025.xlsx
@@ -281,346 +281,346 @@
     <t>Метчик машинно-ручной М18х1.5</t>
   </si>
   <si>
+    <t>Плашка MF24х1.5</t>
+  </si>
+  <si>
+    <t>Чехол фильтровальный 245х1050</t>
+  </si>
+  <si>
+    <t>Метчик машино-ручной М 20х2.5</t>
+  </si>
+  <si>
+    <t>Метчик машино-ручной М 8х1.25</t>
+  </si>
+  <si>
+    <t>Сверло с КХ 17.5 мм</t>
+  </si>
+  <si>
+    <t>Сверло с ЦХ 5.0 мм</t>
+  </si>
+  <si>
+    <t>Сверло с ЦХ 7.0 мм</t>
+  </si>
+  <si>
+    <t>Отвертка 5.5х150 м с магнит кончиком</t>
+  </si>
+  <si>
+    <t>Пистолет обдувочный BGB10-2 L=250 мм</t>
+  </si>
+  <si>
+    <t>Плоскогубцы KRAFTOOL Hi-KRAFT 180 мм</t>
+  </si>
+  <si>
+    <t>Герметик RTV118Q силикон эластомер клей</t>
+  </si>
+  <si>
+    <t>Гофрокартон двухслойный</t>
+  </si>
+  <si>
+    <t>Калибр-кольцо М24х3 ПР НЕ 6g</t>
+  </si>
+  <si>
+    <t>_Калибр-пробка М20х2.5 ПР, НЕ 6Н</t>
+  </si>
+  <si>
+    <t>Калибр-пробка М24х3 ПР НЕ 6Н</t>
+  </si>
+  <si>
+    <t>Калибр-пробка М8х1.25 ПР НЕ 6Н</t>
+  </si>
+  <si>
+    <t>_Лист ПВХ 20х1500х3000 мм темно-серый</t>
+  </si>
+  <si>
+    <t>Метчик машино-ручной М 24х1.25</t>
+  </si>
+  <si>
+    <t>Метчик трубный цилиндрич G 1 компл P6M5</t>
+  </si>
+  <si>
+    <t>Метчик трубный цилиндрич G 1/2 P6M5 кмп</t>
+  </si>
+  <si>
+    <t>Метчик трубный цилиндрич G 3/4 P6M5 кмп</t>
+  </si>
+  <si>
+    <t>Регулятор аргоновый БАРО 5 МГ БАМ3</t>
+  </si>
+  <si>
+    <t>Рым-петля М16 на подшипнике 1.12 т</t>
+  </si>
+  <si>
+    <t>Шайба М24 оцинкованная</t>
+  </si>
+  <si>
+    <t>_Рукав ПВД 1500х0,60/250 (Пленка 60 мкр)</t>
+  </si>
+  <si>
+    <t>Щетка стальная 4 рядная</t>
+  </si>
+  <si>
+    <t>_PH-электрод HI 1230B</t>
+  </si>
+  <si>
+    <t>Круг зачистной 230х6.0х22</t>
+  </si>
+  <si>
+    <t>_Метчик М6-6НХ HSS/E ручн.компл.3шт. VGX</t>
+  </si>
+  <si>
+    <t>Отвертка Т20х100 мм TORX</t>
+  </si>
+  <si>
+    <t>Плашка М20х1.5</t>
+  </si>
+  <si>
+    <t>Сверло HSS DIN 345 D10</t>
+  </si>
+  <si>
+    <t>Сверло HSS DIN 345 D15</t>
+  </si>
+  <si>
+    <t>Сверло HSS DIN 345 D17.5</t>
+  </si>
+  <si>
+    <t>Контейнер МКР 1 ОС2-1 ОППР в пачке</t>
+  </si>
+  <si>
+    <t>Сверло с ЦХ 4.5 мм</t>
+  </si>
+  <si>
+    <t>_Метчик машино-ручной М 20*1,5</t>
+  </si>
+  <si>
     <t>КМП</t>
   </si>
   <si>
-    <t>Плашка MF24х1.5</t>
-  </si>
-  <si>
-    <t>Чехол фильтровальный 245х1050</t>
-  </si>
-  <si>
-    <t>Метчик машино-ручной М 20х2.5</t>
-  </si>
-  <si>
-    <t>Метчик машино-ручной М 8х1.25</t>
-  </si>
-  <si>
-    <t>Сверло с КХ 17.5 мм</t>
-  </si>
-  <si>
-    <t>Сверло с ЦХ 5.0 мм</t>
-  </si>
-  <si>
-    <t>Сверло с ЦХ 7.0 мм</t>
-  </si>
-  <si>
-    <t>Отвертка 5.5х150 м с магнит кончиком</t>
-  </si>
-  <si>
-    <t>Пистолет обдувочный BGB10-2 L=250 мм</t>
-  </si>
-  <si>
-    <t>Плоскогубцы KRAFTOOL Hi-KRAFT 180 мм</t>
-  </si>
-  <si>
-    <t>Герметик RTV118Q силикон эластомер клей</t>
-  </si>
-  <si>
-    <t>Гофрокартон двухслойный</t>
+    <t>Салфетка хозяйств микрофибра набор 30х30</t>
+  </si>
+  <si>
+    <t>Кисть плоская 100мм 4"</t>
+  </si>
+  <si>
+    <t>Отвертка шлицевая 10х200</t>
+  </si>
+  <si>
+    <t>Молоток слесарный с кожухом 500 г</t>
+  </si>
+  <si>
+    <t>Набор ключей шестигранных Г-образных 9шт</t>
+  </si>
+  <si>
+    <t>Конус Морзе КМ2</t>
+  </si>
+  <si>
+    <t>_Электроды ОК-46 д3</t>
+  </si>
+  <si>
+    <t>_Ветошь х/б</t>
+  </si>
+  <si>
+    <t>Губка для посуды</t>
+  </si>
+  <si>
+    <t>Кислота сульфаминовая Ч</t>
+  </si>
+  <si>
+    <t>Кобальт сульфаминовакислый ХЧ</t>
+  </si>
+  <si>
+    <t>_Маннит-(D)</t>
+  </si>
+  <si>
+    <t>_Никель сульфаминовокислый 55% р-р</t>
+  </si>
+  <si>
+    <t>_Перчатки ANSELL "Тач-н-Таф",б/крахм* (СИЗ)</t>
+  </si>
+  <si>
+    <t>Кислота ортофосфорная 85% квалификации Ч</t>
+  </si>
+  <si>
+    <t>Кислота щавелевая ЧДА 1 кг ГОСТ 22180-76</t>
+  </si>
+  <si>
+    <t>Паста термос Berulub Antiseize Paste 932</t>
+  </si>
+  <si>
+    <t>Набор ручных метчиков 3 предмета М10х1.5</t>
+  </si>
+  <si>
+    <t>Болт М12х75.58 ГОСТ 7798-70</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Аминат-К</t>
+  </si>
+  <si>
+    <t>Стандарт-титр рН-метрия</t>
+  </si>
+  <si>
+    <t>Набор ключей шестигранных дюймовых</t>
+  </si>
+  <si>
+    <t>Фреза сферическая Ø6 EBL060A16-4C06</t>
+  </si>
+  <si>
+    <t>Фреза цилиндр. Ø5 EC050E14-3C05 (поставщик ХК "Вектор")</t>
+  </si>
+  <si>
+    <t>Фреза сферич. Ø5 EB050A14-4C05 (поставщик ХК "Вектор")</t>
+  </si>
+  <si>
+    <t>Болт М12х100 ГОСТ 7798-70 кл п 12.9</t>
+  </si>
+  <si>
+    <t>Картридж ЭФГ 63/508</t>
+  </si>
+  <si>
+    <t>Кизельгур грубый Силайт Хайфло Супер Сел</t>
+  </si>
+  <si>
+    <t>Кисть плоская 2" 50мм ЕВРО</t>
+  </si>
+  <si>
+    <t>Лента малярная 50ммх50м</t>
+  </si>
+  <si>
+    <t>Диск алмаз.Norton KGS Flexis 180 Gn-60 (шлиф)</t>
+  </si>
+  <si>
+    <t>Индикатор час типа ИЧ без ушка 801-05</t>
+  </si>
+  <si>
+    <t>Комбинезон хим защиты ТАЙКЕМ с носками</t>
+  </si>
+  <si>
+    <t>Ком-он хим защиты ТайвекКлассик+с носк</t>
+  </si>
+  <si>
+    <t>Набор резьбовых шаблонов №1</t>
+  </si>
+  <si>
+    <t>Набор резьбовых шаблонов №2</t>
+  </si>
+  <si>
+    <t>Пластина для ячейки Хулла</t>
+  </si>
+  <si>
+    <t>Болт М12х70 кп 10.9</t>
+  </si>
+  <si>
+    <t>Аммиак чда фл. 900г ГОСТ 3760-79 25%</t>
+  </si>
+  <si>
+    <t>Шпилька М16х3000 DIN975 оц пол рез</t>
+  </si>
+  <si>
+    <t>Плёнка(стекло) средние 179х129х3 Apollo</t>
+  </si>
+  <si>
+    <t>Диск-подошва резин FUJI 180мм 5412055550</t>
+  </si>
+  <si>
+    <t>Диск-подошва резин FUJI 125мм 5412055548</t>
+  </si>
+  <si>
+    <t>Ламель упаковочная 3,8х25мм (8,8м-1шт)</t>
   </si>
   <si>
     <t>М2</t>
   </si>
   <si>
-    <t>Калибр-кольцо М24х3 ПР НЕ 6g</t>
-  </si>
-  <si>
-    <t>_Калибр-пробка М20х2.5 ПР, НЕ 6Н</t>
-  </si>
-  <si>
-    <t>Калибр-пробка М24х3 ПР НЕ 6Н</t>
-  </si>
-  <si>
-    <t>Калибр-пробка М8х1.25 ПР НЕ 6Н</t>
-  </si>
-  <si>
-    <t>_Лист ПВХ 20х1500х3000 мм темно-серый</t>
-  </si>
-  <si>
-    <t>Метчик машино-ручной М 24х1.25</t>
-  </si>
-  <si>
-    <t>Метчик трубный цилиндрич G 1 компл P6M5</t>
-  </si>
-  <si>
-    <t>Метчик трубный цилиндрич G 1/2 P6M5 кмп</t>
-  </si>
-  <si>
-    <t>Метчик трубный цилиндрич G 3/4 P6M5 кмп</t>
-  </si>
-  <si>
-    <t>Регулятор аргоновый БАРО 5 МГ БАМ3</t>
-  </si>
-  <si>
-    <t>Рым-петля М16 на подшипнике 1.12 т</t>
-  </si>
-  <si>
-    <t>Шайба М24 оцинкованная</t>
-  </si>
-  <si>
-    <t>_Рукав ПВД 1500х0,60/250 (Пленка 60 мкр)</t>
-  </si>
-  <si>
-    <t>Щетка стальная 4 рядная</t>
-  </si>
-  <si>
-    <t>_PH-электрод HI 1230B</t>
-  </si>
-  <si>
-    <t>Круг зачистной 230х6.0х22</t>
-  </si>
-  <si>
-    <t>_Метчик М6-6НХ HSS/E ручн.компл.3шт. VGX</t>
-  </si>
-  <si>
-    <t>Отвертка Т20х100 мм TORX</t>
-  </si>
-  <si>
-    <t>Плашка М20х1.5</t>
-  </si>
-  <si>
-    <t>Сверло HSS DIN 345 D10</t>
-  </si>
-  <si>
-    <t>Сверло HSS DIN 345 D15</t>
-  </si>
-  <si>
-    <t>Сверло HSS DIN 345 D17.5</t>
-  </si>
-  <si>
-    <t>Контейнер МКР 1 ОС2-1 ОППР в пачке</t>
-  </si>
-  <si>
-    <t>Сверло с ЦХ 4.5 мм</t>
-  </si>
-  <si>
-    <t>_Метчик машино-ручной М 20*1,5</t>
-  </si>
-  <si>
-    <t>Салфетка хозяйств микрофибра набор 30х30</t>
+    <t>Набор ключей 8-24мм комб трещ 515101</t>
+  </si>
+  <si>
+    <t>Проволока ER-308Lsi Ø1.6мм</t>
+  </si>
+  <si>
+    <t>Переходник 3/8-1/2 AAD-A340</t>
+  </si>
+  <si>
+    <t>Пластина резьбовая 22IRN55 IC908</t>
+  </si>
+  <si>
+    <t>Круг отрезной 125х1,6х22</t>
+  </si>
+  <si>
+    <t>Круг Ø25мм сталь 20</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Плашка М12х1.75 HSS DIN 223</t>
+  </si>
+  <si>
+    <t>Переходник удар 3/4"-1/2 AAD-P640</t>
+  </si>
+  <si>
+    <t>Электрокорунд белый 25А Фр. 0,150-0,300 (песок - ролики Северсталь)</t>
+  </si>
+  <si>
+    <t>Плашкодержатель М10-11 DIN225 280 мм</t>
+  </si>
+  <si>
+    <t>Плашкодержатель М22-24 DIN225 560 мм</t>
+  </si>
+  <si>
+    <t>Редуктор гелиевый БГО 50-4 Сварог</t>
+  </si>
+  <si>
+    <t>Пеногаситель Пента 474</t>
+  </si>
+  <si>
+    <t>Сверло С ЦХ 6,8 мм</t>
+  </si>
+  <si>
+    <t>Метчик машинный G1/8 для глухих отверст</t>
+  </si>
+  <si>
+    <t>Клей МОМЕНТ</t>
+  </si>
+  <si>
+    <t>Жидкость смаз-охлTechlubeTechnocat3350 (СОЖ токраный станок)</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>Набор щеток для зачистки пазов</t>
+  </si>
+  <si>
+    <t>Паста для кожи очищ Гарда Стандарт 200мл</t>
+  </si>
+  <si>
+    <t>Масло резьбонарезное RIDGID спрей 600 мл</t>
+  </si>
+  <si>
+    <t>Круг фибр шлиф Ø125P36 3MCubitronII 987С</t>
+  </si>
+  <si>
+    <t>Круг фибр шлиф Ø125 P120 3M 787C</t>
+  </si>
+  <si>
+    <t>Пластина резьб. 16ER 1.50 ISO IC908 (поставщик ХК "Вектор")</t>
+  </si>
+  <si>
+    <t>Пластина резьбовая 16ER 1.00 ISO IC908</t>
+  </si>
+  <si>
+    <t>Пластина резьбовая 16ER AG 60 IC908</t>
+  </si>
+  <si>
+    <t>Пластина резьбовая 11IR 18W IC908</t>
+  </si>
+  <si>
+    <t>Перчатки медицинские смотровые латексные</t>
   </si>
   <si>
     <t>ПАЧ</t>
-  </si>
-  <si>
-    <t>Кисть плоская 100мм 4"</t>
-  </si>
-  <si>
-    <t>Отвертка шлицевая 10х200</t>
-  </si>
-  <si>
-    <t>Молоток слесарный с кожухом 500 г</t>
-  </si>
-  <si>
-    <t>Набор ключей шестигранных Г-образных 9шт</t>
-  </si>
-  <si>
-    <t>Конус Морзе КМ2</t>
-  </si>
-  <si>
-    <t>_Электроды ОК-46 д3</t>
-  </si>
-  <si>
-    <t>_Ветошь х/б</t>
-  </si>
-  <si>
-    <t>Губка для посуды</t>
-  </si>
-  <si>
-    <t>Кислота сульфаминовая Ч</t>
-  </si>
-  <si>
-    <t>Кобальт сульфаминовакислый ХЧ</t>
-  </si>
-  <si>
-    <t>_Маннит-(D)</t>
-  </si>
-  <si>
-    <t>_Никель сульфаминовокислый 55% р-р</t>
-  </si>
-  <si>
-    <t>_Перчатки ANSELL "Тач-н-Таф",б/крахм* (СИЗ)</t>
-  </si>
-  <si>
-    <t>Кислота ортофосфорная 85% квалификации Ч</t>
-  </si>
-  <si>
-    <t>Кислота щавелевая ЧДА 1 кг ГОСТ 22180-76</t>
-  </si>
-  <si>
-    <t>Паста термос Berulub Antiseize Paste 932</t>
-  </si>
-  <si>
-    <t>Набор ручных метчиков 3 предмета М10х1.5</t>
-  </si>
-  <si>
-    <t>Болт М12х75.58 ГОСТ 7798-70</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>Аминат-К</t>
-  </si>
-  <si>
-    <t>Стандарт-титр рН-метрия</t>
-  </si>
-  <si>
-    <t>Набор ключей шестигранных дюймовых</t>
-  </si>
-  <si>
-    <t>Фреза сферическая Ø6 EBL060A16-4C06</t>
-  </si>
-  <si>
-    <t>Фреза цилиндр. Ø5 EC050E14-3C05 (поставщик ХК "Вектор")</t>
-  </si>
-  <si>
-    <t>Фреза сферич. Ø5 EB050A14-4C05 (поставщик ХК "Вектор")</t>
-  </si>
-  <si>
-    <t>Болт М12х100 ГОСТ 7798-70 кл п 12.9</t>
-  </si>
-  <si>
-    <t>Картридж ЭФГ 63/508</t>
-  </si>
-  <si>
-    <t>Кизельгур грубый Силайт Хайфло Супер Сел</t>
-  </si>
-  <si>
-    <t>Кисть плоская 2" 50мм ЕВРО</t>
-  </si>
-  <si>
-    <t>Лента малярная 50ммх50м</t>
-  </si>
-  <si>
-    <t>Диск алмаз.Norton KGS Flexis 180 Gn-60 (шлиф)</t>
-  </si>
-  <si>
-    <t>Индикатор час типа ИЧ без ушка 801-05</t>
-  </si>
-  <si>
-    <t>Комбинезон хим защиты ТАЙКЕМ с носками</t>
-  </si>
-  <si>
-    <t>Ком-он хим защиты ТайвекКлассик+с носк</t>
-  </si>
-  <si>
-    <t>Набор резьбовых шаблонов №1</t>
-  </si>
-  <si>
-    <t>Набор резьбовых шаблонов №2</t>
-  </si>
-  <si>
-    <t>Пластина для ячейки Хулла</t>
-  </si>
-  <si>
-    <t>Болт М12х70 кп 10.9</t>
-  </si>
-  <si>
-    <t>Аммиак чда фл. 900г ГОСТ 3760-79 25%</t>
-  </si>
-  <si>
-    <t>Шпилька М16х3000 DIN975 оц пол рез</t>
-  </si>
-  <si>
-    <t>Плёнка(стекло) средние 179х129х3 Apollo</t>
-  </si>
-  <si>
-    <t>Диск-подошва резин FUJI 180мм 5412055550</t>
-  </si>
-  <si>
-    <t>Диск-подошва резин FUJI 125мм 5412055548</t>
-  </si>
-  <si>
-    <t>Ламель упаковочная 3,8х25мм (8,8м-1шт)</t>
-  </si>
-  <si>
-    <t>Набор ключей 8-24мм комб трещ 515101</t>
-  </si>
-  <si>
-    <t>Проволока ER-308Lsi Ø1.6мм</t>
-  </si>
-  <si>
-    <t>Переходник 3/8-1/2 AAD-A340</t>
-  </si>
-  <si>
-    <t>Пластина резьбовая 22IRN55 IC908</t>
-  </si>
-  <si>
-    <t>Круг отрезной 125х1,6х22</t>
-  </si>
-  <si>
-    <t>Круг Ø25мм сталь 20</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Плашка М12х1.75 HSS DIN 223</t>
-  </si>
-  <si>
-    <t>Переходник удар 3/4"-1/2 AAD-P640</t>
-  </si>
-  <si>
-    <t>Электрокорунд белый 25А Фр. 0,150-0,300 (песок - ролики Северсталь)</t>
-  </si>
-  <si>
-    <t>Плашкодержатель М10-11 DIN225 280 мм</t>
-  </si>
-  <si>
-    <t>Плашкодержатель М22-24 DIN225 560 мм</t>
-  </si>
-  <si>
-    <t>Редуктор гелиевый БГО 50-4 Сварог</t>
-  </si>
-  <si>
-    <t>Пеногаситель Пента 474</t>
-  </si>
-  <si>
-    <t>Сверло С ЦХ 6,8 мм</t>
-  </si>
-  <si>
-    <t>Метчик машинный G1/8 для глухих отверст</t>
-  </si>
-  <si>
-    <t>Клей МОМЕНТ</t>
-  </si>
-  <si>
-    <t>Жидкость смаз-охлTechlubeTechnocat3350 (СОЖ токраный станок)</t>
-  </si>
-  <si>
-    <t>кг</t>
-  </si>
-  <si>
-    <t>Набор щеток для зачистки пазов</t>
-  </si>
-  <si>
-    <t>Паста для кожи очищ Гарда Стандарт 200мл</t>
-  </si>
-  <si>
-    <t>Масло резьбонарезное RIDGID спрей 600 мл</t>
-  </si>
-  <si>
-    <t>Круг фибр шлиф Ø125P36 3MCubitronII 987С</t>
-  </si>
-  <si>
-    <t>Круг фибр шлиф Ø125 P120 3M 787C</t>
-  </si>
-  <si>
-    <t>Пластина резьб. 16ER 1.50 ISO IC908 (поставщик ХК "Вектор")</t>
-  </si>
-  <si>
-    <t>Пластина резьбовая 16ER 1.00 ISO IC908</t>
-  </si>
-  <si>
-    <t>Пластина резьбовая 16ER AG 60 IC908</t>
-  </si>
-  <si>
-    <t>Пластина резьбовая 11IR 18W IC908</t>
-  </si>
-  <si>
-    <t>Перчатки медицинские смотровые латексные</t>
   </si>
   <si>
     <t>Пластина VCMT 160404-SM IC6025</t>
@@ -2183,9 +2183,6 @@
       <c r="C68">
         <v>5</v>
       </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
       <c r="E68">
         <v>2</v>
       </c>
@@ -2200,9 +2197,6 @@
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
       <c r="E69">
         <v>1</v>
       </c>
@@ -2217,9 +2211,6 @@
       <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
       <c r="E70">
         <v>3</v>
       </c>
@@ -2251,9 +2242,6 @@
       <c r="C72">
         <v>5</v>
       </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
       <c r="E72">
         <v>2</v>
       </c>
@@ -2268,9 +2256,6 @@
       <c r="C73">
         <v>5</v>
       </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
       <c r="E73">
         <v>2</v>
       </c>
@@ -2285,9 +2270,6 @@
       <c r="C74">
         <v>200</v>
       </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
@@ -2299,9 +2281,6 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75" t="s">
-        <v>88</v>
-      </c>
       <c r="E75">
         <v>1</v>
       </c>
@@ -2311,13 +2290,10 @@
         <v>3008301</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>2</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2328,13 +2304,10 @@
         <v>3008304</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77">
         <v>150</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
       </c>
       <c r="E77">
         <v>110</v>
@@ -2345,13 +2318,10 @@
         <v>3008344</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78">
         <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>88</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2362,13 +2332,10 @@
         <v>3008395</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
         <v>5</v>
-      </c>
-      <c r="D79" t="s">
-        <v>12</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2379,13 +2346,10 @@
         <v>3008432</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2396,13 +2360,10 @@
         <v>3008442</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81">
         <v>5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
       </c>
       <c r="E81">
         <v>5</v>
@@ -2413,13 +2374,10 @@
         <v>3008444</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82">
         <v>3</v>
-      </c>
-      <c r="D82" t="s">
-        <v>12</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -2430,13 +2388,10 @@
         <v>3008697</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83">
         <v>5</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2447,13 +2402,10 @@
         <v>3008702</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>3</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2464,13 +2416,10 @@
         <v>3008703</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85">
         <v>3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2481,7 +2430,7 @@
         <v>3008776</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -2495,13 +2444,10 @@
         <v>3008783</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>164</v>
-      </c>
-      <c r="D87" t="s">
-        <v>101</v>
       </c>
       <c r="E87">
         <v>82</v>
@@ -2512,13 +2458,10 @@
         <v>3008814</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2529,7 +2472,7 @@
         <v>3008822</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2546,13 +2489,10 @@
         <v>3008824</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C90">
         <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2563,13 +2503,10 @@
         <v>3008827</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C91">
         <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2580,7 +2517,7 @@
         <v>3008933</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2597,13 +2534,10 @@
         <v>3008941</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93">
         <v>2</v>
-      </c>
-      <c r="D93" t="s">
-        <v>88</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2614,13 +2548,10 @@
         <v>3008949</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94">
         <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2628,13 +2559,10 @@
         <v>3008951</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95">
         <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>88</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2645,13 +2573,10 @@
         <v>3008952</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96">
         <v>1</v>
-      </c>
-      <c r="D96" t="s">
-        <v>88</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2662,13 +2587,10 @@
         <v>3009012</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97">
         <v>2</v>
-      </c>
-      <c r="D97" t="s">
-        <v>12</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2679,13 +2601,10 @@
         <v>3009025</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C98">
         <v>4</v>
-      </c>
-      <c r="D98" t="s">
-        <v>12</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -2696,13 +2615,10 @@
         <v>3009082</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C99">
         <v>100</v>
-      </c>
-      <c r="D99" t="s">
-        <v>12</v>
       </c>
       <c r="E99">
         <v>99</v>
@@ -2713,7 +2629,7 @@
         <v>3009116</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -2730,13 +2646,10 @@
         <v>3009126</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C101">
         <v>5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>12</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2747,7 +2660,7 @@
         <v>3009145</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -2764,13 +2677,10 @@
         <v>3009160</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C103">
         <v>20</v>
-      </c>
-      <c r="D103" t="s">
-        <v>12</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -2781,7 +2691,7 @@
         <v>3009169</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -2798,13 +2708,10 @@
         <v>3009190</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C105">
         <v>5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>12</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -2815,13 +2722,10 @@
         <v>3009193</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C106">
         <v>2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2832,13 +2736,10 @@
         <v>3009242</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C107">
         <v>3</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2849,13 +2750,10 @@
         <v>3009251</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C108">
         <v>2</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2866,13 +2764,10 @@
         <v>3009256</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C109">
         <v>2</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2883,13 +2778,10 @@
         <v>3009321</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C110">
         <v>100</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
       </c>
       <c r="E110">
         <v>20</v>
@@ -2900,13 +2792,10 @@
         <v>3009329</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C111">
         <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -2917,13 +2806,13 @@
         <v>3009467</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2934,13 +2823,10 @@
         <v>3012708</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113">
         <v>20</v>
-      </c>
-      <c r="D113" t="s">
-        <v>128</v>
       </c>
       <c r="E113">
         <v>10</v>
@@ -2951,13 +2837,10 @@
         <v>3012816</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C114">
         <v>10</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -2968,13 +2851,10 @@
         <v>3012972</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C115">
         <v>5</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -2985,13 +2865,10 @@
         <v>3012975</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C116">
         <v>3</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3002,13 +2879,10 @@
         <v>3014010</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C117">
         <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3019,13 +2893,10 @@
         <v>3015879</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C118">
         <v>2</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3036,7 +2907,7 @@
         <v>3016409</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C119">
         <v>20</v>
@@ -3053,7 +2924,7 @@
         <v>3016411</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C120">
         <v>100</v>
@@ -3070,13 +2941,10 @@
         <v>3016412</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C121">
         <v>20</v>
-      </c>
-      <c r="D121" t="s">
-        <v>12</v>
       </c>
       <c r="E121">
         <v>20</v>
@@ -3087,13 +2955,10 @@
         <v>3016416</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C122">
         <v>120</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
       </c>
       <c r="E122">
         <v>80</v>
@@ -3104,13 +2969,10 @@
         <v>3016417</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C123">
         <v>1508</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
       </c>
       <c r="E123">
         <v>1450</v>
@@ -3121,7 +2983,7 @@
         <v>3016418</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -3138,7 +3000,7 @@
         <v>3016419</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C125">
         <v>600</v>
@@ -3155,7 +3017,7 @@
         <v>3016473</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C126">
         <v>600</v>
@@ -3172,13 +3034,10 @@
         <v>3016478</v>
       </c>
       <c r="B127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C127">
         <v>840</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
       </c>
       <c r="E127">
         <v>840</v>
@@ -3189,7 +3048,7 @@
         <v>3016479</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C128">
         <v>10</v>
@@ -3203,7 +3062,7 @@
         <v>3020013</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3217,13 +3076,10 @@
         <v>3020134</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C130">
         <v>3</v>
-      </c>
-      <c r="D130" t="s">
-        <v>88</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3234,13 +3090,13 @@
         <v>3022654</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131">
         <v>0.01</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3251,13 +3107,10 @@
         <v>3024020</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C132">
         <v>40</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
       </c>
       <c r="E132">
         <v>25</v>
@@ -3268,13 +3121,13 @@
         <v>3024773</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3285,13 +3138,10 @@
         <v>3026566</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C134">
         <v>2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>12</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3302,7 +3152,7 @@
         <v>3026873</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -3316,7 +3166,7 @@
         <v>3026874</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -3333,7 +3183,7 @@
         <v>3026878</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -3350,13 +3200,10 @@
         <v>3027768</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C138">
         <v>100</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
       </c>
       <c r="E138">
         <v>30</v>
@@ -3367,13 +3214,10 @@
         <v>3028729</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C139">
         <v>24</v>
-      </c>
-      <c r="D139" t="s">
-        <v>12</v>
       </c>
       <c r="E139">
         <v>21</v>
@@ -3384,13 +3228,10 @@
         <v>3028806</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C140">
         <v>25</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
       </c>
       <c r="E140">
         <v>25</v>
@@ -3401,13 +3242,10 @@
         <v>3028898</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C141">
         <v>10</v>
-      </c>
-      <c r="D141" t="s">
-        <v>12</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -3418,13 +3256,10 @@
         <v>3028905</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C142">
         <v>20</v>
-      </c>
-      <c r="D142" t="s">
-        <v>12</v>
       </c>
       <c r="E142">
         <v>10</v>
@@ -3435,7 +3270,7 @@
         <v>3029026</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C143">
         <v>10</v>
@@ -3452,7 +3287,7 @@
         <v>3030364</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C144">
         <v>5</v>
@@ -3469,13 +3304,10 @@
         <v>3030442</v>
       </c>
       <c r="B145" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C145">
         <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3483,7 +3315,7 @@
         <v>3030445</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C146">
         <v>10</v>
@@ -3500,13 +3332,10 @@
         <v>3030699</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C147">
         <v>1</v>
-      </c>
-      <c r="D147" t="s">
-        <v>12</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -3517,13 +3346,10 @@
         <v>3030700</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C148">
         <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>12</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -3534,7 +3360,7 @@
         <v>3031074</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C149">
         <v>50</v>
@@ -3551,13 +3377,10 @@
         <v>3031233</v>
       </c>
       <c r="B150" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C150">
         <v>100</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
       </c>
       <c r="E150">
         <v>50</v>
@@ -3568,7 +3391,7 @@
         <v>3032651</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -3585,13 +3408,10 @@
         <v>3033100</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C152">
         <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>12</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -3602,7 +3422,7 @@
         <v>3033561</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C153">
         <v>20</v>
@@ -3619,13 +3439,10 @@
         <v>3034753</v>
       </c>
       <c r="B154" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C154">
         <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>12</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -3636,7 +3453,7 @@
         <v>3034754</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -3653,13 +3470,13 @@
         <v>3035126</v>
       </c>
       <c r="B156" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C156">
         <v>88</v>
       </c>
       <c r="D156" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -3670,13 +3487,10 @@
         <v>3035341</v>
       </c>
       <c r="B157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C157">
         <v>2</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -3687,12 +3501,9 @@
         <v>3035347</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C158">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3701,13 +3512,10 @@
         <v>3035436</v>
       </c>
       <c r="B159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C159">
         <v>2</v>
-      </c>
-      <c r="D159" t="s">
-        <v>12</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -3718,13 +3526,10 @@
         <v>3036145</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C160">
         <v>10</v>
-      </c>
-      <c r="D160" t="s">
-        <v>12</v>
       </c>
       <c r="E160">
         <v>10</v>
@@ -3735,7 +3540,7 @@
         <v>3037176</v>
       </c>
       <c r="B161" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161">
         <v>20</v>
@@ -3752,13 +3557,13 @@
         <v>3038059</v>
       </c>
       <c r="B162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C162">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3769,13 +3574,10 @@
         <v>3038250</v>
       </c>
       <c r="B163" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C163">
         <v>3</v>
-      </c>
-      <c r="D163" t="s">
-        <v>12</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -3786,13 +3588,10 @@
         <v>3038388</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164">
         <v>4</v>
-      </c>
-      <c r="D164" t="s">
-        <v>12</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -3803,7 +3602,7 @@
         <v>3038688</v>
       </c>
       <c r="B165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C165">
         <v>2000</v>
@@ -3820,13 +3619,10 @@
         <v>3038952</v>
       </c>
       <c r="B166" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C166">
         <v>3</v>
-      </c>
-      <c r="D166" t="s">
-        <v>12</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -3837,13 +3633,10 @@
         <v>3038954</v>
       </c>
       <c r="B167" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>3</v>
-      </c>
-      <c r="D167" t="s">
-        <v>12</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -3854,7 +3647,7 @@
         <v>3039231</v>
       </c>
       <c r="B168" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -3871,13 +3664,10 @@
         <v>3039461</v>
       </c>
       <c r="B169" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C169">
         <v>40</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
       </c>
       <c r="E169">
         <v>40</v>
@@ -3888,7 +3678,7 @@
         <v>3039761</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170">
         <v>10</v>
@@ -3905,13 +3695,10 @@
         <v>3039813</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171">
         <v>5</v>
-      </c>
-      <c r="D171" t="s">
-        <v>12</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -3922,13 +3709,10 @@
         <v>3039816</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C172">
         <v>5</v>
-      </c>
-      <c r="D172" t="s">
-        <v>12</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -3939,13 +3723,13 @@
         <v>3040074</v>
       </c>
       <c r="B173" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C173">
         <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3956,13 +3740,10 @@
         <v>3044214</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C174">
         <v>5</v>
-      </c>
-      <c r="D174" t="s">
-        <v>12</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -3973,13 +3754,10 @@
         <v>3044658</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C175">
         <v>60</v>
-      </c>
-      <c r="D175" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3987,13 +3765,10 @@
         <v>3050987</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C176">
         <v>3</v>
-      </c>
-      <c r="D176" t="s">
-        <v>12</v>
       </c>
       <c r="E176">
         <v>2</v>
@@ -4004,13 +3779,10 @@
         <v>3051455</v>
       </c>
       <c r="B177" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C177">
         <v>50</v>
-      </c>
-      <c r="D177" t="s">
-        <v>12</v>
       </c>
       <c r="E177">
         <v>10</v>
@@ -4021,13 +3793,10 @@
         <v>3051458</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C178">
         <v>50</v>
-      </c>
-      <c r="D178" t="s">
-        <v>12</v>
       </c>
       <c r="E178">
         <v>27</v>
@@ -4038,7 +3807,7 @@
         <v>3052816</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C179">
         <v>10</v>
@@ -4055,13 +3824,10 @@
         <v>3052817</v>
       </c>
       <c r="B180" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C180">
         <v>10</v>
-      </c>
-      <c r="D180" t="s">
-        <v>12</v>
       </c>
       <c r="E180">
         <v>10</v>
@@ -4072,13 +3838,10 @@
         <v>3052818</v>
       </c>
       <c r="B181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181">
         <v>10</v>
-      </c>
-      <c r="D181" t="s">
-        <v>12</v>
       </c>
       <c r="E181">
         <v>10</v>
@@ -4089,13 +3852,10 @@
         <v>3052819</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C182">
         <v>10</v>
-      </c>
-      <c r="D182" t="s">
-        <v>12</v>
       </c>
       <c r="E182">
         <v>10</v>
@@ -4106,13 +3866,13 @@
         <v>3053583</v>
       </c>
       <c r="B183" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C183">
         <v>3</v>
       </c>
       <c r="D183" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -4128,9 +3888,6 @@
       <c r="C184">
         <v>10</v>
       </c>
-      <c r="D184" t="s">
-        <v>12</v>
-      </c>
       <c r="E184">
         <v>10</v>
       </c>
@@ -4252,9 +4009,6 @@
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="D192" t="s">
-        <v>12</v>
-      </c>
       <c r="E192">
         <v>1</v>
       </c>
@@ -4269,9 +4023,6 @@
       <c r="C193">
         <v>200</v>
       </c>
-      <c r="D193" t="s">
-        <v>12</v>
-      </c>
       <c r="E193">
         <v>4</v>
       </c>
@@ -4286,9 +4037,6 @@
       <c r="C194">
         <v>6</v>
       </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
       <c r="E194">
         <v>2</v>
       </c>
@@ -4334,9 +4082,6 @@
       <c r="C197">
         <v>10</v>
       </c>
-      <c r="D197" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
@@ -4348,9 +4093,6 @@
       <c r="C198">
         <v>3</v>
       </c>
-      <c r="D198" t="s">
-        <v>12</v>
-      </c>
       <c r="E198">
         <v>2</v>
       </c>
@@ -4365,9 +4107,6 @@
       <c r="C199">
         <v>10</v>
       </c>
-      <c r="D199" t="s">
-        <v>12</v>
-      </c>
       <c r="E199">
         <v>5</v>
       </c>
@@ -4507,7 +4246,7 @@
         <v>2.5</v>
       </c>
       <c r="D208" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E208">
         <v>0</v>
